--- a/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
+++ b/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gazprom\gazprom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9391CD9F-A295-49D5-AF1A-6B3CA9AE5A2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B7B807AD-ADB7-4934-8F0C-63B5A5044E00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Элементы" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="198">
   <si>
     <t>Элемент</t>
   </si>
@@ -635,6 +635,12 @@
   </si>
   <si>
     <t>Навигация по структуре</t>
+  </si>
+  <si>
+    <t>20.04.2018,23.04.2018</t>
+  </si>
+  <si>
+    <t>Факт</t>
   </si>
 </sst>
 </file>
@@ -704,7 +710,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +743,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -909,6 +927,33 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1696,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC02EE97-A78A-491E-B154-941FAFB2DADD}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,7 +2161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F2E55C-A4FE-4AC5-9BCA-6B7FAD59998E}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2440,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C01C595-4D52-4BFA-8FE3-4960001DB6A9}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2500,7 @@
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>116</v>
       </c>
@@ -2468,134 +2513,149 @@
       <c r="D1" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="F1" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="24">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="24">
         <f>C2*B17</f>
         <v>6000</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="34">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="34">
         <f>C3*B17</f>
         <v>20000</v>
       </c>
       <c r="E3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="29">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="29">
         <f>C4*B17</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="29">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="29">
         <f>C5*B17</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <f>C6*B17</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="14">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="14">
         <f>C7*B17</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <f>C8*B17</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="14">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="14">
         <f>C9*B17</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>112</v>
       </c>
@@ -2610,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="8" t="s">
         <v>49</v>
@@ -2623,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="8" t="s">
         <v>50</v>
@@ -2636,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="8" t="s">
         <v>57</v>
@@ -2649,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -2661,10 +2721,18 @@
         <f>SUM(D2:D13)</f>
         <v>78000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" ref="E14:F14" si="0">SUM(F2:F13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>119</v>
+      </c>
+      <c r="D16">
+        <f>D14*0.77</f>
+        <v>60060</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
+++ b/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gazprom\gazprom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B7B807AD-ADB7-4934-8F0C-63B5A5044E00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A3BB1E02-C3AA-45C1-9087-12251C78CE69}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="199">
   <si>
     <t>Элемент</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>Факт</t>
+  </si>
+  <si>
+    <t>26.04.2018,27.04.2018</t>
   </si>
 </sst>
 </file>
@@ -906,24 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -954,6 +939,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1689,43 +1692,43 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1921,13 +1924,13 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="15" t="s">
         <v>89</v>
       </c>
       <c r="L14" t="s">
@@ -1992,165 +1995,165 @@
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="23"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23" t="s">
+      <c r="F32" s="17"/>
+      <c r="G32" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="23"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="23"/>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23" t="s">
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23" t="s">
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="23"/>
-      <c r="D42" s="23" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="23"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="23"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="23"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="23"/>
-      <c r="D46" s="23" t="s">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="23"/>
-      <c r="D47" s="23" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D51" s="23"/>
+      <c r="D51" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2488,7 +2491,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,20 +2521,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="18">
         <v>3</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="18">
         <f>C2*B17</f>
         <v>6000</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="16" t="s">
         <v>169</v>
       </c>
       <c r="F2">
@@ -2539,16 +2542,16 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="28">
         <v>10</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="28">
         <f>C3*B17</f>
         <v>20000</v>
       </c>
@@ -2560,16 +2563,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="23">
         <v>3</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="23">
         <f>C4*B17</f>
         <v>6000</v>
       </c>
@@ -2581,25 +2584,31 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="23">
         <v>5</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="23">
         <f>C5*B17</f>
         <v>10000</v>
       </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C6" s="14">
@@ -2611,10 +2620,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="20" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="14">
@@ -2626,10 +2635,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="14">
@@ -2641,10 +2650,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="14">
@@ -2722,8 +2731,8 @@
         <v>78000</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="E14:F14" si="0">SUM(F2:F13)</f>
-        <v>10</v>
+        <f t="shared" ref="F14" si="0">SUM(F2:F13)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
+++ b/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gazprom\gazprom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A3BB1E02-C3AA-45C1-9087-12251C78CE69}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F55504D2-15DE-4614-AE65-718A9690AA03}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Элементы" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="199">
   <si>
     <t>Элемент</t>
   </si>
@@ -643,7 +643,7 @@
     <t>Факт</t>
   </si>
   <si>
-    <t>26.04.2018,27.04.2018</t>
+    <t>26.04.2018,27.04.2018,3.05.2018</t>
   </si>
 </sst>
 </file>
@@ -879,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -955,6 +955,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2164,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F2E55C-A4FE-4AC5-9BCA-6B7FAD59998E}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C01C595-4D52-4BFA-8FE3-4960001DB6A9}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,7 +2586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>68</v>
       </c>
@@ -2597,11 +2600,11 @@
         <f>C5*B17</f>
         <v>10000</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="35" t="s">
         <v>198</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2732,7 +2735,7 @@
       </c>
       <c r="F14">
         <f t="shared" ref="F14" si="0">SUM(F2:F13)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
+++ b/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gazprom\gazprom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F55504D2-15DE-4614-AE65-718A9690AA03}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32B4E03F-4C74-4BDB-BFC6-1CF5FD0C4DDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="199">
   <si>
     <t>Элемент</t>
   </si>
@@ -643,7 +643,7 @@
     <t>Факт</t>
   </si>
   <si>
-    <t>26.04.2018,27.04.2018,3.05.2018</t>
+    <t>26.04.2018,27.04.2018,3.05.2018,4.05.2018,7.05.2018,10.05.2018,11.05.2018</t>
   </si>
 </sst>
 </file>
@@ -1747,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC02EE97-A78A-491E-B154-941FAFB2DADD}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,7 +2168,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,7 +2586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>68</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>198</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="F14">
         <f t="shared" ref="F14" si="0">SUM(F2:F13)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
+++ b/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gazprom\gazprom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32B4E03F-4C74-4BDB-BFC6-1CF5FD0C4DDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5961E0A-18ED-4FEC-B6FB-3B9B98B7B337}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,7 +643,7 @@
     <t>Факт</t>
   </si>
   <si>
-    <t>26.04.2018,27.04.2018,3.05.2018,4.05.2018,7.05.2018,10.05.2018,11.05.2018</t>
+    <t>26.04, 27.04, 3.05, 4.05, 7.05, 10.05, 11.05, 16.05-18.05, 21.05,22.05</t>
   </si>
 </sst>
 </file>
@@ -939,6 +939,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -955,9 +958,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1695,43 +1695,43 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1747,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC02EE97-A78A-491E-B154-941FAFB2DADD}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2566,16 +2566,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="18">
         <v>3</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="18">
         <f>C4*B17</f>
         <v>6000</v>
       </c>
@@ -2600,11 +2600,11 @@
         <f>C5*B17</f>
         <v>10000</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="29" t="s">
         <v>198</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="F14">
         <f t="shared" ref="F14" si="0">SUM(F2:F13)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
+++ b/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gazprom\gazprom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5961E0A-18ED-4FEC-B6FB-3B9B98B7B337}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{37B803DB-C6F5-436A-994C-46A87BC6E959}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="201">
   <si>
     <t>Элемент</t>
   </si>
@@ -363,9 +363,6 @@
     <t>Справка и статистика</t>
   </si>
   <si>
-    <t>Таблиц, значений, списков, связей</t>
-  </si>
-  <si>
     <t>Подпрограммы</t>
   </si>
   <si>
@@ -383,13 +380,6 @@
     <t>События, состояния и  задачи.  
 Возможность откатиться на определенный срез времени(Гит). 
 Сравнение проектов и определение отличий (для слияния проектов редактируемых удалено)</t>
-  </si>
-  <si>
-    <t>Организация движка для работы с древовидной структурой (Предусмотреть выставление приоритета у ветки). 
-Наследование.
-Копирование.
-Навигация. 
-Справка (возможность привязки к структуре).</t>
   </si>
   <si>
     <t>Название</t>
@@ -643,7 +633,22 @@
     <t>Факт</t>
   </si>
   <si>
-    <t>26.04, 27.04, 3.05, 4.05, 7.05, 10.05, 11.05, 16.05-18.05, 21.05,22.05</t>
+    <t>26.04, 27.04, 3.05, 4.05, 7.05, 10.05, 11.05, 16.05-18.05, 21.05</t>
+  </si>
+  <si>
+    <t>22.05, 23.05,24.05</t>
+  </si>
+  <si>
+    <t>Организация движка для работы с древовидной структурой (Предусмотреть выставление приоритета у ветки). 
+Копирование.
+Навигация. 
+Справка (возможность привязки к структуре).</t>
+  </si>
+  <si>
+    <t>Таблиц, значений, списков</t>
+  </si>
+  <si>
+    <t>Cвязей</t>
   </si>
 </sst>
 </file>
@@ -713,7 +718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,18 +751,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -919,26 +912,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1695,43 +1674,43 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1942,7 +1921,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
@@ -1999,7 +1978,7 @@
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>39</v>
@@ -2008,7 +1987,7 @@
         <v>78</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H31" s="17"/>
     </row>
@@ -2019,7 +1998,7 @@
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H32" s="17"/>
     </row>
@@ -2030,32 +2009,32 @@
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="17"/>
       <c r="D35" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
@@ -2066,95 +2045,95 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E40" s="17"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E41" s="17"/>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="17"/>
       <c r="D42" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E42" s="17"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E43" s="17"/>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="17"/>
       <c r="D44" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E44" s="17"/>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="17"/>
       <c r="D45" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" s="17"/>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="17"/>
       <c r="D46" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="17"/>
       <c r="D47" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="17" t="s">
         <v>183</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D51" s="17"/>
     </row>
@@ -2183,32 +2162,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
         <v>149</v>
-      </c>
-      <c r="C3" t="s">
-        <v>151</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2216,60 +2195,60 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" t="s">
-        <v>152</v>
-      </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2281,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2289,7 +2268,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2301,136 +2280,136 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
         <v>155</v>
-      </c>
-      <c r="F10" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2491,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C01C595-4D52-4BFA-8FE3-4960001DB6A9}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,282 +2487,309 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>120</v>
       </c>
       <c r="C2" s="18">
         <v>3</v>
       </c>
       <c r="D2" s="18">
-        <f>C2*B17</f>
+        <f>C2*B19</f>
         <v>6000</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="18">
         <v>10</v>
       </c>
-      <c r="D3" s="28">
-        <f>C3*B17</f>
+      <c r="D3" s="18">
+        <f>C3*B19</f>
         <v>20000</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C5" s="18">
         <v>3</v>
       </c>
-      <c r="D4" s="18">
-        <f>C4*B17</f>
+      <c r="D5" s="18">
+        <f>C5*B19</f>
         <v>6000</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="18">
+        <v>5</v>
+      </c>
+      <c r="D6" s="18">
+        <f>C6*B19</f>
+        <v>10000</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="F6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="18">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18">
+        <f>C8*B19</f>
+        <v>10000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="23">
-        <v>5</v>
-      </c>
-      <c r="D5" s="23">
-        <f>C5*B17</f>
-        <v>10000</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="B9" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="C6" s="14">
-        <v>5</v>
-      </c>
-      <c r="D6" s="14">
-        <f>C6*B17</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="14">
-        <v>5</v>
-      </c>
-      <c r="D7" s="14">
-        <f>C7*B17</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="14">
-        <v>3</v>
-      </c>
-      <c r="D8" s="14">
-        <f>C8*B17</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="C9" s="14">
         <v>5</v>
       </c>
       <c r="D9" s="14">
-        <f>C9*B17</f>
+        <f>C9*B19</f>
         <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14">
+        <f>C10*B19</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="14">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14">
+        <f>C11*B19</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f>C10*B17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f>C11*B17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <f>C12*B17</f>
+        <f>C12*B19</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <f>C13*B17</f>
+        <f>C13*B19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>123</v>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C14">
-        <f>SUM(C2:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>C14*B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>C15*B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C2:C15)</f>
         <v>39</v>
       </c>
-      <c r="D14">
-        <f>SUM(D2:D13)</f>
+      <c r="D16">
+        <f>SUM(D2:D15)</f>
         <v>78000</v>
       </c>
-      <c r="F14">
-        <f t="shared" ref="F14" si="0">SUM(F2:F13)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16">
-        <f>D14*0.77</f>
+      <c r="F16">
+        <f t="shared" ref="F16" si="0">SUM(F2:F15)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18">
+        <f>D16*0.77</f>
         <v>60060</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
+++ b/gazprom/Приложение к ЧТЗ На ПО СКУ20180322(НиколенкоРученькин).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gazprom\gazprom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{37B803DB-C6F5-436A-994C-46A87BC6E959}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{219F07D8-19C6-4AD3-8D5D-F5807A30C22D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,9 +636,6 @@
     <t>26.04, 27.04, 3.05, 4.05, 7.05, 10.05, 11.05, 16.05-18.05, 21.05</t>
   </si>
   <si>
-    <t>22.05, 23.05,24.05</t>
-  </si>
-  <si>
     <t>Организация движка для работы с древовидной структурой (Предусмотреть выставление приоритета у ветки). 
 Копирование.
 Навигация. 
@@ -649,6 +646,9 @@
   </si>
   <si>
     <t>Cвязей</t>
+  </si>
+  <si>
+    <t>22.05, 23.05,24.05,25.05,28.05</t>
   </si>
 </sst>
 </file>
@@ -2473,7 +2473,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="18">
         <v>10</v>
@@ -2580,7 +2580,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="18">
         <v>5</v>
@@ -2601,7 +2601,7 @@
         <v>184</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -2621,11 +2621,11 @@
         <f>C8*B19</f>
         <v>10000</v>
       </c>
-      <c r="E8" t="s">
-        <v>197</v>
+      <c r="E8" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="F16">
         <f t="shared" ref="F16" si="0">SUM(F2:F15)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
